--- a/development/database/excel/reward.xlsx
+++ b/development/database/excel/reward.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="175">
   <si>
     <t>奖励编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -642,7 +642,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>激活码礼包</t>
+    <t>新手礼包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[2,21100,99,1][2,21200,99,1][2,40000,5,1][2,25004,1,1]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独家礼包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[2,21101,99,1][2,21201,99,1][2,23001,1,1][2,20001,2,1]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特权礼包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[2,35007,5,1][2,37001,1,1][2,37101,1,1][2,25004,1,1]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500元充值礼包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000元充值礼包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000元充值礼包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000元充值礼包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000元充值礼包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000元充值礼包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[2,10401,2,1][2,37002,5,1][3,20013,2,1][2,35013,10,1][2,36101,5,1][2,37500,5,1]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[2,10402,3,1][2,37412,5,1][3,20013,3,1][2,25001,3,1][2,35014,10,1][2,34004,10,1]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[2,10402,5,1][2,10001,5,1][2,37213,5,1][3,20014,1,1][2,25002,5,1][2,25013,5,1][2,33004,1,1][2,34004,20,1][2,61403,1,1]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[2,10402,10,1][2,10001,10,1][2,37213,10,1][3,20014,2,1][2,25002,10,1][2,25013,5,1][2,33004,3,1][2,34004,30,1][2,61402,1,1][2,35011,10,1][2,35016,10,1]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[2,10403,5,1][2,10001,15,1][2,37313,10,1][3,20014,3,1][2,25003,5,1][2,25013,10,1][2,33005,1,1][2,34004,40,1][2,61501,1,1][2,35012,20,1][2,35016,15,1]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[2,10403,10,1][2,10001,20,1][2,37313,20,1][3,20014,5,1][2,25003,10,1][2,25013,20,1][2,33005,3,1][2,34004,50,1][2,61503,1,1][2,35012,30,1][2,35016,20,1]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1063,13 +1131,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="E67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A77" sqref="A77:XFD77"/>
+      <selection pane="bottomRight" activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1077,7 +1145,7 @@
     <col min="2" max="2" width="20.375" customWidth="1"/>
     <col min="3" max="3" width="18.75" customWidth="1"/>
     <col min="4" max="5" width="27.625" customWidth="1"/>
-    <col min="6" max="6" width="77.5" customWidth="1"/>
+    <col min="6" max="6" width="169.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="243" x14ac:dyDescent="0.15">
@@ -2602,7 +2670,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
-        <v>2001</v>
+        <v>2101</v>
       </c>
       <c r="B77" s="1">
         <v>20</v>
@@ -2617,7 +2685,167 @@
         <v>0</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>124</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" s="1">
+        <v>2102</v>
+      </c>
+      <c r="B78" s="1">
+        <v>20</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A79" s="1">
+        <v>2103</v>
+      </c>
+      <c r="B79" s="1">
+        <v>20</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" s="1">
+        <v>2104</v>
+      </c>
+      <c r="B80" s="1">
+        <v>20</v>
+      </c>
+      <c r="C80" t="s">
+        <v>163</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" s="1">
+        <v>2105</v>
+      </c>
+      <c r="B81" s="1">
+        <v>20</v>
+      </c>
+      <c r="C81" t="s">
+        <v>164</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82" s="1">
+        <v>2106</v>
+      </c>
+      <c r="B82" s="1">
+        <v>20</v>
+      </c>
+      <c r="C82" t="s">
+        <v>165</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A83" s="1">
+        <v>2107</v>
+      </c>
+      <c r="B83" s="1">
+        <v>20</v>
+      </c>
+      <c r="C83" t="s">
+        <v>166</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84" s="1">
+        <v>2108</v>
+      </c>
+      <c r="B84" s="1">
+        <v>20</v>
+      </c>
+      <c r="C84" t="s">
+        <v>167</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85" s="1">
+        <v>2109</v>
+      </c>
+      <c r="B85" s="1">
+        <v>20</v>
+      </c>
+      <c r="C85" t="s">
+        <v>168</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0</v>
+      </c>
+      <c r="E85" s="1">
+        <v>0</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/development/database/excel/reward.xlsx
+++ b/development/database/excel/reward.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="14805" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -444,21 +444,6 @@
     <t>[[4,0,4000,1][2,75015,1,1][2,36100,50,1]]</t>
   </si>
   <si>
-    <t>[[2,20012,3,1][2,35009,40,1][2,36104,8,1][1,1130401,1,1][1,1230401,1,1][1,1330401,1,1]]</t>
-  </si>
-  <si>
-    <t>[[2,20012,6,1][2,35009,72,1][2,36104,14,1][1,1030403,1,1]]</t>
-  </si>
-  <si>
-    <t>[[2,20012,10,1][2,35010,26,1][2,36104,24,1][1,1130501,1,1][1,1230501,1,1][1,1330501,1,1]]</t>
-  </si>
-  <si>
-    <t>[[2,20013,4,1][2,35010,48,1][2,36104,45,1][1,1030501,1,1]]</t>
-  </si>
-  <si>
-    <t>[[2,20013,6,1][2,35011,16,1][2,36104,75,1][1,1140601,1,1][1,1240601,1,1][1,1340601,1,1]]</t>
-  </si>
-  <si>
     <t>[[2,20012,5,1][2,35013,60,1][2,22001,23,1][2,33001,20,1]]</t>
   </si>
   <si>
@@ -615,10 +600,6 @@
   <si>
     <t>限制条件
 1: 可领取次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[2,20013,10,1][2,35011,26,1][2,36104,120,1][1,1150701,1,0][1,1250701,1,0][1,1350701,1,0]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -711,6 +692,30 @@
   </si>
   <si>
     <t>[[2,10403,10,1][2,10001,20,1][2,37313,20,1][3,20014,5,1][2,25003,10,1][2,25013,20,1][2,33005,3,1][2,34004,50,1][2,61503,1,1][2,35012,30,1][2,35016,20,1]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[2,20012,3,1][2,35009,20,1][2,36104,3,1][1,1130401,1,1][1,1230401,1,1][1,1330401,1,1]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[2,20012,6,1][2,35009,36,1][2,36104,5,1][1,1030403,1,1]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[2,20012,10,1][2,35010,13,1][2,36104,10,1][1,1130501,1,1][1,1230501,1,1][1,1330501,1,1]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[2,20013,4,1][2,35010,24,1][2,36104,15,1][1,1030501,1,1]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[2,20013,6,1][2,35011,8,1][2,36104,25,1][1,1140601,1,1][1,1240601,1,1][1,1340601,1,1]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[2,20013,10,1][2,35011,16,1][2,36104,40,1][1,1140701,1,0][1,1340701,1,0][1,1240701,1,0]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1134,10 +1139,10 @@
   <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="E67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F85" sqref="F85"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1153,7 +1158,7 @@
         <v>53</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>54</v>
@@ -1162,7 +1167,7 @@
         <v>55</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>56</v>
@@ -1182,7 +1187,7 @@
         <v>60</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -1285,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1305,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1325,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1345,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1365,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1385,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1405,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -1425,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -1445,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -1465,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -1485,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -1505,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -1525,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -1545,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1865,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
@@ -1945,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
@@ -1965,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
@@ -1985,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
@@ -2005,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
@@ -2025,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
@@ -2045,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
@@ -2065,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
@@ -2085,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
@@ -2105,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
@@ -2125,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
@@ -2145,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
@@ -2165,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
@@ -2185,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
@@ -2205,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
@@ -2405,7 +2410,7 @@
         <v>200</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
@@ -2425,7 +2430,7 @@
         <v>100</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
@@ -2445,7 +2450,7 @@
         <v>50</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2465,7 +2470,7 @@
         <v>10</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
@@ -2485,7 +2490,7 @@
         <v>3</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
@@ -2505,7 +2510,7 @@
         <v>1</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2525,7 +2530,7 @@
         <v>1000</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
@@ -2545,7 +2550,7 @@
         <v>500</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
@@ -2565,7 +2570,7 @@
         <v>200</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2585,7 +2590,7 @@
         <v>50</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
@@ -2605,7 +2610,7 @@
         <v>8</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
@@ -2625,7 +2630,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
@@ -2636,7 +2641,7 @@
         <v>15</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
@@ -2645,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
@@ -2656,7 +2661,7 @@
         <v>16</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
@@ -2665,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
@@ -2676,7 +2681,7 @@
         <v>20</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
@@ -2685,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
@@ -2696,7 +2701,7 @@
         <v>20</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
@@ -2705,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
@@ -2716,7 +2721,7 @@
         <v>20</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
@@ -2725,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
@@ -2736,16 +2741,16 @@
         <v>20</v>
       </c>
       <c r="C80" t="s">
+        <v>157</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="D80" s="1">
-        <v>0</v>
-      </c>
-      <c r="E80" s="1">
-        <v>0</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
@@ -2756,16 +2761,16 @@
         <v>20</v>
       </c>
       <c r="C81" t="s">
+        <v>158</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="D81" s="1">
-        <v>0</v>
-      </c>
-      <c r="E81" s="1">
-        <v>0</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
@@ -2776,16 +2781,16 @@
         <v>20</v>
       </c>
       <c r="C82" t="s">
+        <v>159</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="D82" s="1">
-        <v>0</v>
-      </c>
-      <c r="E82" s="1">
-        <v>0</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
@@ -2796,16 +2801,16 @@
         <v>20</v>
       </c>
       <c r="C83" t="s">
+        <v>160</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="D83" s="1">
-        <v>0</v>
-      </c>
-      <c r="E83" s="1">
-        <v>0</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
@@ -2816,16 +2821,16 @@
         <v>20</v>
       </c>
       <c r="C84" t="s">
+        <v>161</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="D84" s="1">
-        <v>0</v>
-      </c>
-      <c r="E84" s="1">
-        <v>0</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
@@ -2836,16 +2841,16 @@
         <v>20</v>
       </c>
       <c r="C85" t="s">
+        <v>162</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0</v>
+      </c>
+      <c r="E85" s="1">
+        <v>0</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="D85" s="1">
-        <v>0</v>
-      </c>
-      <c r="E85" s="1">
-        <v>0</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/development/database/excel/reward.xlsx
+++ b/development/database/excel/reward.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="176">
   <si>
     <t>奖励编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -716,6 +716,10 @@
   </si>
   <si>
     <t>[[2,20013,10,1][2,35011,16,1][2,36104,40,1][1,1140701,1,0][1,1340701,1,0][1,1240701,1,0]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1,1150001,1,1][1,1250001,1,1][1,1350001,1,1][2,61203,1,1][2,35009,20,1][2,35013,20,1]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1139,10 +1143,10 @@
   <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21:XFD21"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1270,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>77</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
